--- a/derivatives/VS-TPJ_ROI_connectivity.xlsx
+++ b/derivatives/VS-TPJ_ROI_connectivity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="15">
   <si>
     <t>P_C</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>sub</t>
+  </si>
+  <si>
+    <t>Outcome2</t>
+  </si>
+  <si>
+    <t>Contrast2</t>
   </si>
 </sst>
 </file>
@@ -406,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J271"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="G271" sqref="G271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -427,25 +433,25 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F1" t="s">
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-0.1243335034</v>
+        <v>-1.517297599E-2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -458,6 +464,9 @@
         <f>IF(COUNTIF(B2,"*C*"), "Computer",IF(COUNTIF(B2,"*S*"), "Stranger", "Friend"))</f>
         <v>Computer</v>
       </c>
+      <c r="E2">
+        <v>1001</v>
+      </c>
       <c r="F2">
         <v>-0.12931192890000001</v>
       </c>
@@ -472,13 +481,10 @@
         <f t="shared" ref="I2:I33" si="2">IF(COUNTIF(G2,"*C*"), "Computer",IF(COUNTIF(G2,"*S*"), "Stranger", "Friend"))</f>
         <v>Computer</v>
       </c>
-      <c r="J2">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-2.77733974E-2</v>
+        <v>0.10042058919999999</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -491,6 +497,9 @@
         <f t="shared" ref="D3:D66" si="3">IF(COUNTIF(B3,"*C*"), "Computer",IF(COUNTIF(B3,"*S*"), "Stranger", "Friend"))</f>
         <v>Computer</v>
       </c>
+      <c r="E3">
+        <v>1006</v>
+      </c>
       <c r="F3">
         <v>0.109658028</v>
       </c>
@@ -505,13 +514,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J3">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-0.10457160059999999</v>
+        <v>-0.19958731639999999</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -524,6 +530,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E4">
+        <v>1009</v>
+      </c>
       <c r="F4">
         <v>7.041645983E-2</v>
       </c>
@@ -538,13 +547,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J4">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-1.386920556E-2</v>
+        <v>-0.1205978279</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -557,6 +563,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E5">
+        <v>1010</v>
+      </c>
       <c r="F5">
         <v>-0.2575904483</v>
       </c>
@@ -571,13 +580,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J5">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0.10829615049999999</v>
+        <v>1.3178713640000001E-2</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -590,6 +596,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E6">
+        <v>1011</v>
+      </c>
       <c r="F6">
         <v>7.0320893750000002E-2</v>
       </c>
@@ -604,13 +613,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J6">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-6.9420843119999999E-3</v>
+        <v>-5.1202848740000001E-2</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -623,6 +629,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E7">
+        <v>1012</v>
+      </c>
       <c r="F7">
         <v>-0.1095449038</v>
       </c>
@@ -637,13 +646,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J7">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1.236533205E-2</v>
+        <v>4.607910045E-2</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -656,6 +662,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E8">
+        <v>1013</v>
+      </c>
       <c r="F8">
         <v>-3.8781544789999998E-3</v>
       </c>
@@ -670,13 +679,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J8">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>-7.8879647060000002E-2</v>
+        <v>-3.091936331E-2</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -689,6 +695,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E9">
+        <v>1015</v>
+      </c>
       <c r="F9">
         <v>-8.3729897179999999E-2</v>
       </c>
@@ -703,13 +712,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J9">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>-1.0776027820000001E-2</v>
+        <v>8.9648970659999994E-2</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -722,6 +728,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E10">
+        <v>1016</v>
+      </c>
       <c r="F10">
         <v>-9.7669514949999994E-2</v>
       </c>
@@ -736,13 +745,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J10">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>-5.938515364E-2</v>
+        <v>7.1297687380000002E-2</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -755,6 +761,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E11">
+        <v>1019</v>
+      </c>
       <c r="F11">
         <v>3.3570595459999998E-2</v>
       </c>
@@ -769,13 +778,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J11">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>4.6817152809999998E-2</v>
+        <v>2.1149876080000002E-3</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -788,6 +794,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E12">
+        <v>1021</v>
+      </c>
       <c r="F12">
         <v>-1.008040382E-2</v>
       </c>
@@ -802,13 +811,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J12">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>-9.4316386419999992E-3</v>
+        <v>8.8664170289999997E-2</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -821,6 +827,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E13">
+        <v>1242</v>
+      </c>
       <c r="F13">
         <v>5.5427869169999998E-2</v>
       </c>
@@ -835,13 +844,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J13">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>-2.2280215320000001E-2</v>
+        <v>7.9010474230000002E-2</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -854,6 +860,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E14">
+        <v>1243</v>
+      </c>
       <c r="F14">
         <v>1.484354067E-2</v>
       </c>
@@ -868,13 +877,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J14">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>4.3306519979999999E-2</v>
+        <v>0.15135819219999999</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -887,6 +893,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E15">
+        <v>1244</v>
+      </c>
       <c r="F15">
         <v>0.1522835485</v>
       </c>
@@ -901,13 +910,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J15">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>-0.12349433849999999</v>
+        <v>8.0743062889999995E-2</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -920,6 +926,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E16">
+        <v>1248</v>
+      </c>
       <c r="F16">
         <v>5.5947200769999997E-2</v>
       </c>
@@ -934,13 +943,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J16">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>-4.4016962579999999E-3</v>
+        <v>2.7079132629999999E-2</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -953,6 +959,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E17">
+        <v>1249</v>
+      </c>
       <c r="F17">
         <v>7.9141796200000003E-2</v>
       </c>
@@ -967,13 +976,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J17">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1.080800029E-2</v>
+        <v>0.1765264221</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -986,6 +992,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E18">
+        <v>1251</v>
+      </c>
       <c r="F18">
         <v>-0.12618366989999999</v>
       </c>
@@ -1000,13 +1009,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J18">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>-0.1032489942</v>
+        <v>-0.21960840270000001</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -1019,6 +1025,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E19">
+        <v>1255</v>
+      </c>
       <c r="F19">
         <v>8.9191793549999995E-2</v>
       </c>
@@ -1033,13 +1042,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J19">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>-3.3713513629999997E-2</v>
+        <v>-3.6177072009999998E-2</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1052,6 +1058,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E20">
+        <v>1276</v>
+      </c>
       <c r="F20">
         <v>-7.0706405530000002E-2</v>
       </c>
@@ -1066,13 +1075,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J20">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>5.151609461E-2</v>
+        <v>-4.9308107900000002E-2</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -1085,6 +1091,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E21">
+        <v>1282</v>
+      </c>
       <c r="F21">
         <v>-0.16204606190000001</v>
       </c>
@@ -1099,13 +1108,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J21">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>-0.1402035123</v>
+        <v>1.7573318349999999E-3</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -1118,6 +1124,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E22">
+        <v>1286</v>
+      </c>
       <c r="F22">
         <v>-6.2951089109999997E-2</v>
       </c>
@@ -1132,13 +1141,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J22">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>-0.14163305179999999</v>
+        <v>0.16945853280000001</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -1151,6 +1157,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E23">
+        <v>1294</v>
+      </c>
       <c r="F23">
         <v>-3.083564494E-2</v>
       </c>
@@ -1165,13 +1174,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J23">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>6.083426493E-2</v>
+        <v>3.3558317240000003E-2</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -1184,6 +1190,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E24">
+        <v>1301</v>
+      </c>
       <c r="F24">
         <v>9.4756958520000004E-2</v>
       </c>
@@ -1198,13 +1207,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J24">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>5.011851061E-2</v>
+        <v>-2.7718178780000002E-2</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -1217,6 +1223,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E25">
+        <v>1302</v>
+      </c>
       <c r="F25">
         <v>0.1084702028</v>
       </c>
@@ -1231,13 +1240,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J25">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>0.18606290319999999</v>
+        <v>-4.524024737E-2</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -1250,6 +1256,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E26">
+        <v>1303</v>
+      </c>
       <c r="F26">
         <v>-2.7458165140000001E-2</v>
       </c>
@@ -1264,13 +1273,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J26">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>-0.17429907829999999</v>
+        <v>2.9125539150000001E-2</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -1283,6 +1289,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E27">
+        <v>3116</v>
+      </c>
       <c r="F27">
         <v>2.2033548989999999E-2</v>
       </c>
@@ -1297,13 +1306,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J27">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>-8.4259375369999997E-3</v>
+        <v>-5.9166847879999998E-2</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -1316,6 +1322,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E28">
+        <v>3122</v>
+      </c>
       <c r="F28">
         <v>-5.7969364180000003E-2</v>
       </c>
@@ -1330,13 +1339,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J28">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>-0.1135038411</v>
+        <v>-8.4936945700000002E-2</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -1349,6 +1355,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E29">
+        <v>3125</v>
+      </c>
       <c r="F29">
         <v>-8.5149135609999996E-2</v>
       </c>
@@ -1363,13 +1372,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J29">
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>4.8265121700000001E-4</v>
+        <v>0.1089819231</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -1382,6 +1388,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E30">
+        <v>3140</v>
+      </c>
       <c r="F30">
         <v>-1.508041586E-2</v>
       </c>
@@ -1396,13 +1405,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J30">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>0.20408241050000001</v>
+        <v>-4.3157951910000004E-3</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -1415,6 +1421,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E31">
+        <v>3143</v>
+      </c>
       <c r="F31">
         <v>0.1406736559</v>
       </c>
@@ -1429,13 +1438,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J31">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>0.13428598689999999</v>
+        <v>1.1498980759999999E-2</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -1448,6 +1454,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E32">
+        <v>3152</v>
+      </c>
       <c r="F32">
         <v>-1.3496655010000001E-3</v>
       </c>
@@ -1462,13 +1471,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J32">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>0.14912647030000001</v>
+        <v>8.2178076119999999E-2</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -1481,6 +1487,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E33">
+        <v>3166</v>
+      </c>
       <c r="F33">
         <v>6.1738694890000001E-2</v>
       </c>
@@ -1495,13 +1504,10 @@
         <f t="shared" si="2"/>
         <v>Computer</v>
       </c>
-      <c r="J33">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>5.3085900900000003E-2</v>
+        <v>0.13095103450000001</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -1514,6 +1520,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E34">
+        <v>3167</v>
+      </c>
       <c r="F34">
         <v>-6.5565873329999996E-2</v>
       </c>
@@ -1528,13 +1537,10 @@
         <f t="shared" ref="I34:I65" si="5">IF(COUNTIF(G34,"*C*"), "Computer",IF(COUNTIF(G34,"*S*"), "Stranger", "Friend"))</f>
         <v>Computer</v>
       </c>
-      <c r="J34">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>-0.15563359360000001</v>
+        <v>-0.14594153579999999</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -1547,6 +1553,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E35">
+        <v>3170</v>
+      </c>
       <c r="F35">
         <v>-8.6802322289999997E-2</v>
       </c>
@@ -1561,13 +1570,10 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J35">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>9.8776647999999995E-2</v>
+        <v>0.14380672310000001</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -1580,6 +1586,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E36">
+        <v>3173</v>
+      </c>
       <c r="F36">
         <v>-6.1905253760000001E-2</v>
       </c>
@@ -1594,13 +1603,10 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J36">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>-3.2140451510000001E-2</v>
+        <v>-0.1178507401</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -1613,6 +1619,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E37">
+        <v>3176</v>
+      </c>
       <c r="F37">
         <v>-0.11903557569999999</v>
       </c>
@@ -1627,13 +1636,10 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J37">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>5.1649950430000001E-2</v>
+        <v>0.1855474614</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -1646,6 +1652,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E38">
+        <v>3189</v>
+      </c>
       <c r="F38">
         <v>6.1144023759999999E-2</v>
       </c>
@@ -1660,13 +1669,10 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J38">
-        <v>3189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>6.827397097E-2</v>
+        <v>-3.1105448760000001E-2</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -1679,6 +1685,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E39">
+        <v>3190</v>
+      </c>
       <c r="F39">
         <v>-1.002771624E-2</v>
       </c>
@@ -1693,13 +1702,10 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J39">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>4.8893661290000001E-2</v>
+        <v>-7.5948759759999996E-3</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -1712,6 +1718,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E40">
+        <v>3199</v>
+      </c>
       <c r="F40">
         <v>2.8995740190000001E-2</v>
       </c>
@@ -1726,13 +1735,10 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J40">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>-0.21512851969999999</v>
+        <v>-0.30270130899999997</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -1745,6 +1751,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E41">
+        <v>3200</v>
+      </c>
       <c r="F41">
         <v>7.4643270309999996E-2</v>
       </c>
@@ -1759,13 +1768,10 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J41">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>-6.9485516610000006E-2</v>
+        <v>-0.16810796350000001</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -1778,6 +1784,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E42">
+        <v>3206</v>
+      </c>
       <c r="F42">
         <v>-6.5725382190000001E-2</v>
       </c>
@@ -1792,13 +1801,10 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J42">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>0.23551931109999999</v>
+        <v>0.47265633169999999</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -1811,6 +1817,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E43">
+        <v>3210</v>
+      </c>
       <c r="F43">
         <v>0.1366600925</v>
       </c>
@@ -1825,13 +1834,10 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J43">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>-4.0075656440000003E-2</v>
+        <v>-3.0798553980000001E-2</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -1844,6 +1850,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E44">
+        <v>3212</v>
+      </c>
       <c r="F44">
         <v>-0.1189113797</v>
       </c>
@@ -1858,13 +1867,10 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J44">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>-0.1244941356</v>
+        <v>-5.2486253089999997E-2</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
@@ -1877,6 +1883,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E45">
+        <v>3218</v>
+      </c>
       <c r="F45">
         <v>-0.24088375209999999</v>
       </c>
@@ -1891,13 +1900,10 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J45">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>5.6199380700000003E-2</v>
+        <v>9.7053642260000003E-2</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -1910,6 +1916,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E46">
+        <v>3220</v>
+      </c>
       <c r="F46">
         <v>-0.12357074830000001</v>
       </c>
@@ -1924,13 +1933,10 @@
         <f t="shared" si="5"/>
         <v>Computer</v>
       </c>
-      <c r="J46">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>-0.12931192890000001</v>
+        <v>-0.41000560060000002</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -1943,6 +1949,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E47">
+        <v>1001</v>
+      </c>
       <c r="F47">
         <v>-0.15632092619999999</v>
       </c>
@@ -1957,13 +1966,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J47">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>0.109658028</v>
+        <v>6.1523832000000001E-2</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -1976,6 +1982,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E48">
+        <v>1006</v>
+      </c>
       <c r="F48">
         <v>-6.7695534020000003E-2</v>
       </c>
@@ -1990,13 +1999,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J48">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>7.041645983E-2</v>
+        <v>0.1084953842</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -2009,6 +2015,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E49">
+        <v>1009</v>
+      </c>
       <c r="F49">
         <v>0.18544633520000001</v>
       </c>
@@ -2023,13 +2032,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J49">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>-0.2575904483</v>
+        <v>-0.17315190120000001</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -2042,6 +2048,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E50">
+        <v>1010</v>
+      </c>
       <c r="F50">
         <v>-2.506671332E-2</v>
       </c>
@@ -2056,13 +2065,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J50">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>7.0320893750000002E-2</v>
+        <v>0.109954731</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -2075,6 +2081,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E51">
+        <v>1011</v>
+      </c>
       <c r="F51">
         <v>0.15189940690000001</v>
       </c>
@@ -2089,13 +2098,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J51">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>-0.1095449038</v>
+        <v>-4.8562932439999998E-2</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -2108,6 +2114,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E52">
+        <v>1012</v>
+      </c>
       <c r="F52">
         <v>-9.2512706E-2</v>
       </c>
@@ -2122,13 +2131,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J52">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>-3.8781544789999998E-3</v>
+        <v>-0.2225879114</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -2141,6 +2147,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E53">
+        <v>1013</v>
+      </c>
       <c r="F53">
         <v>8.2986437940000005E-2</v>
       </c>
@@ -2155,13 +2164,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J53">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>-8.3729897179999999E-2</v>
+        <v>-7.7072629470000001E-2</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -2174,6 +2180,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E54">
+        <v>1015</v>
+      </c>
       <c r="F54">
         <v>-6.746904326E-2</v>
       </c>
@@ -2188,13 +2197,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J54">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>-9.7669514949999994E-2</v>
+        <v>9.5713334959999993E-3</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -2207,6 +2213,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E55">
+        <v>1016</v>
+      </c>
       <c r="F55">
         <v>2.5336503810000001E-2</v>
       </c>
@@ -2221,13 +2230,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J55">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>3.3570595459999998E-2</v>
+        <v>-0.1127572501</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -2240,6 +2246,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E56">
+        <v>1019</v>
+      </c>
       <c r="F56">
         <v>4.8865048530000003E-2</v>
       </c>
@@ -2254,13 +2263,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J56">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>-1.008040382E-2</v>
+        <v>-5.8616196920000002E-2</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -2273,6 +2279,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E57">
+        <v>1021</v>
+      </c>
       <c r="F57">
         <v>-2.5273870970000001E-2</v>
       </c>
@@ -2287,13 +2296,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J57">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>5.5427869169999998E-2</v>
+        <v>0.33354089370000001</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -2306,6 +2312,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E58">
+        <v>1242</v>
+      </c>
       <c r="F58">
         <v>-3.9852927599999997E-2</v>
       </c>
@@ -2320,13 +2329,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J58">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>1.484354067E-2</v>
+        <v>0.10795482419999999</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
@@ -2339,6 +2345,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E59">
+        <v>1243</v>
+      </c>
       <c r="F59">
         <v>-4.7834818580000001E-2</v>
       </c>
@@ -2353,13 +2362,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J59">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>0.1522835485</v>
+        <v>0.20277832100000001</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -2372,6 +2378,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E60">
+        <v>1244</v>
+      </c>
       <c r="F60">
         <v>9.5109140059999996E-3</v>
       </c>
@@ -2386,13 +2395,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J60">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>5.5947200769999997E-2</v>
+        <v>0.2150979231</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -2405,6 +2411,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E61">
+        <v>1248</v>
+      </c>
       <c r="F61">
         <v>2.3121254439999999E-2</v>
       </c>
@@ -2419,13 +2428,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J61">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>7.9141796200000003E-2</v>
+        <v>9.7234216380000002E-2</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -2438,6 +2444,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E62">
+        <v>1249</v>
+      </c>
       <c r="F62">
         <v>-0.14576428289999999</v>
       </c>
@@ -2452,13 +2461,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J62">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>-0.12618366989999999</v>
+        <v>-0.27957015680000002</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -2471,6 +2477,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E63">
+        <v>1251</v>
+      </c>
       <c r="F63">
         <v>-6.324410862E-3</v>
       </c>
@@ -2485,13 +2494,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J63">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>8.9191793549999995E-2</v>
+        <v>-4.1233833810000002E-2</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -2504,6 +2510,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E64">
+        <v>1255</v>
+      </c>
       <c r="F64">
         <v>4.4805139299999998E-2</v>
       </c>
@@ -2518,13 +2527,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J64">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>-7.0706405530000002E-2</v>
+        <v>-7.7168200340000007E-2</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -2537,6 +2543,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E65">
+        <v>1276</v>
+      </c>
       <c r="F65">
         <v>-4.2092089979999997E-2</v>
       </c>
@@ -2551,13 +2560,10 @@
         <f t="shared" si="5"/>
         <v>Friend</v>
       </c>
-      <c r="J65">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>-0.16204606190000001</v>
+        <v>-0.19674363510000001</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -2570,6 +2576,9 @@
         <f t="shared" si="3"/>
         <v>Computer</v>
       </c>
+      <c r="E66">
+        <v>1282</v>
+      </c>
       <c r="F66">
         <v>0.18500615710000001</v>
       </c>
@@ -2584,13 +2593,10 @@
         <f t="shared" ref="I66:I97" si="7">IF(COUNTIF(G66,"*C*"), "Computer",IF(COUNTIF(G66,"*S*"), "Stranger", "Friend"))</f>
         <v>Friend</v>
       </c>
-      <c r="J66">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>-6.2951089109999997E-2</v>
+        <v>-7.5449719970000001E-3</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -2603,6 +2609,9 @@
         <f t="shared" ref="D67:D130" si="9">IF(COUNTIF(B67,"*C*"), "Computer",IF(COUNTIF(B67,"*S*"), "Stranger", "Friend"))</f>
         <v>Computer</v>
       </c>
+      <c r="E67">
+        <v>1286</v>
+      </c>
       <c r="F67">
         <v>4.1706046830000003E-2</v>
       </c>
@@ -2617,13 +2626,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J67">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>-3.083564494E-2</v>
+        <v>0.1695752452</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -2636,6 +2642,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E68">
+        <v>1294</v>
+      </c>
       <c r="F68">
         <v>7.0389925189999994E-2</v>
       </c>
@@ -2650,13 +2659,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J68">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>9.4756958520000004E-2</v>
+        <v>2.6196382659999999E-3</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -2669,6 +2675,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E69">
+        <v>1301</v>
+      </c>
       <c r="F69">
         <v>4.3756435980000001E-2</v>
       </c>
@@ -2683,13 +2692,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J69">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>0.1084702028</v>
+        <v>0.14031106209999999</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -2702,6 +2708,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E70">
+        <v>1302</v>
+      </c>
       <c r="F70">
         <v>0.16828469930000001</v>
       </c>
@@ -2716,13 +2725,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J70">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>-2.7458165140000001E-2</v>
+        <v>-0.20775543390000001</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -2735,6 +2741,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E71">
+        <v>1303</v>
+      </c>
       <c r="F71">
         <v>-7.3455408779999995E-2</v>
       </c>
@@ -2749,13 +2758,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J71">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2.2033548989999999E-2</v>
+        <v>-3.532346997E-2</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -2768,6 +2774,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E72">
+        <v>3116</v>
+      </c>
       <c r="F72">
         <v>-0.12796338339999999</v>
       </c>
@@ -2782,13 +2791,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J72">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>-5.7969364180000003E-2</v>
+        <v>3.8344725869999999E-2</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -2801,6 +2807,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E73">
+        <v>3122</v>
+      </c>
       <c r="F73">
         <v>0.22414382490000001</v>
       </c>
@@ -2815,13 +2824,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J73">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>-8.5149135609999996E-2</v>
+        <v>-3.085960305E-2</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -2834,6 +2840,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E74">
+        <v>3125</v>
+      </c>
       <c r="F74">
         <v>4.7561250239999998E-3</v>
       </c>
@@ -2848,13 +2857,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J74">
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>-1.508041586E-2</v>
+        <v>0.12850166020000001</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
@@ -2867,6 +2873,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E75">
+        <v>3140</v>
+      </c>
       <c r="F75">
         <v>3.4257799899999997E-2</v>
       </c>
@@ -2881,13 +2890,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J75">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>0.1406736559</v>
+        <v>0.1080560423</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -2900,6 +2906,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E76">
+        <v>3143</v>
+      </c>
       <c r="F76">
         <v>0.22864312980000001</v>
       </c>
@@ -2914,13 +2923,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J76">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>-1.3496655010000001E-3</v>
+        <v>-0.1987729919</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -2933,6 +2939,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E77">
+        <v>3152</v>
+      </c>
       <c r="F77">
         <v>6.3666969429999998E-2</v>
       </c>
@@ -2947,13 +2956,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J77">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>6.1738694890000001E-2</v>
+        <v>-0.1358741329</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
@@ -2966,6 +2972,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E78">
+        <v>3166</v>
+      </c>
       <c r="F78">
         <v>0.1168522511</v>
       </c>
@@ -2980,13 +2989,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J78">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>-6.5565873329999996E-2</v>
+        <v>5.903054059E-2</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -2999,6 +3005,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E79">
+        <v>3167</v>
+      </c>
       <c r="F79">
         <v>-9.1183370180000001E-2</v>
       </c>
@@ -3013,13 +3022,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J79">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>-8.6802322289999997E-2</v>
+        <v>-8.9566408439999995E-2</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -3032,6 +3038,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E80">
+        <v>3170</v>
+      </c>
       <c r="F80">
         <v>-7.4615364010000004E-2</v>
       </c>
@@ -3046,13 +3055,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J80">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>-6.1905253760000001E-2</v>
+        <v>-2.4637895029999999E-2</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -3065,6 +3071,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E81">
+        <v>3173</v>
+      </c>
       <c r="F81">
         <v>2.9234620419999999E-2</v>
       </c>
@@ -3079,13 +3088,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J81">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>-0.11903557569999999</v>
+        <v>-5.198552453E-2</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
@@ -3098,6 +3104,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E82">
+        <v>3176</v>
+      </c>
       <c r="F82">
         <v>4.4546370840000002E-2</v>
       </c>
@@ -3112,13 +3121,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J82">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>6.1144023759999999E-2</v>
+        <v>3.9321169039999999E-2</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -3131,6 +3137,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E83">
+        <v>3189</v>
+      </c>
       <c r="F83">
         <v>-4.6470051560000003E-2</v>
       </c>
@@ -3145,13 +3154,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J83">
-        <v>3189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>-1.002771624E-2</v>
+        <v>7.6774725370000005E-2</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -3164,6 +3170,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E84">
+        <v>3190</v>
+      </c>
       <c r="F84">
         <v>0.1333091364</v>
       </c>
@@ -3178,13 +3187,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J84">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2.8995740190000001E-2</v>
+        <v>3.3861187770000002E-2</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -3197,6 +3203,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E85">
+        <v>3199</v>
+      </c>
       <c r="F85">
         <v>0.1374480112</v>
       </c>
@@ -3211,13 +3220,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J85">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>7.4643270309999996E-2</v>
+        <v>-6.4756468689999999E-2</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -3230,6 +3236,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E86">
+        <v>3200</v>
+      </c>
       <c r="F86">
         <v>-0.20236506879999999</v>
       </c>
@@ -3244,13 +3253,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J86">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>-6.5725382190000001E-2</v>
+        <v>-5.3274993710000003E-2</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -3263,6 +3269,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E87">
+        <v>3206</v>
+      </c>
       <c r="F87">
         <v>3.4939827729999998E-2</v>
       </c>
@@ -3277,13 +3286,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J87">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>0.1366600925</v>
+        <v>0.15145120479999999</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -3296,6 +3302,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E88">
+        <v>3210</v>
+      </c>
       <c r="F88">
         <v>-3.3795779989999997E-2</v>
       </c>
@@ -3310,13 +3319,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J88">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>-0.1189113797</v>
+        <v>3.4191610560000002E-2</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -3329,6 +3335,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E89">
+        <v>3212</v>
+      </c>
       <c r="F89">
         <v>8.8079275080000005E-2</v>
       </c>
@@ -3343,13 +3352,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J89">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>-0.24088375209999999</v>
+        <v>-3.6091119040000001E-2</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -3362,6 +3368,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E90">
+        <v>3218</v>
+      </c>
       <c r="F90">
         <v>-2.965120458E-2</v>
       </c>
@@ -3376,13 +3385,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J90">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>-0.12357074830000001</v>
+        <v>-0.1737409661</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
@@ -3395,6 +3401,9 @@
         <f t="shared" si="9"/>
         <v>Computer</v>
       </c>
+      <c r="E91">
+        <v>3220</v>
+      </c>
       <c r="F91">
         <v>-0.17557328119999999</v>
       </c>
@@ -3409,13 +3418,10 @@
         <f t="shared" si="7"/>
         <v>Friend</v>
       </c>
-      <c r="J91">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>-1.194595807E-2</v>
+        <v>-8.0409910429999995E-2</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
@@ -3428,6 +3434,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E92">
+        <v>1001</v>
+      </c>
       <c r="F92">
         <v>-1.964949689E-2</v>
       </c>
@@ -3442,13 +3451,10 @@
         <f t="shared" si="7"/>
         <v>Stranger</v>
       </c>
-      <c r="J92">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>-3.1840992069999997E-2</v>
+        <v>-6.2508320110000001E-2</v>
       </c>
       <c r="B93" t="s">
         <v>2</v>
@@ -3461,6 +3467,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E93">
+        <v>1006</v>
+      </c>
       <c r="F93">
         <v>-1.287515146E-3</v>
       </c>
@@ -3475,13 +3484,10 @@
         <f t="shared" si="7"/>
         <v>Stranger</v>
       </c>
-      <c r="J93">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>4.9525907049999998E-2</v>
+        <v>-6.452151582E-2</v>
       </c>
       <c r="B94" t="s">
         <v>2</v>
@@ -3494,6 +3500,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E94">
+        <v>1009</v>
+      </c>
       <c r="F94">
         <v>0.20777517979999999</v>
       </c>
@@ -3508,13 +3517,10 @@
         <f t="shared" si="7"/>
         <v>Stranger</v>
       </c>
-      <c r="J94">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>-0.40318172260000001</v>
+        <v>-0.48187824000000001</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
@@ -3527,6 +3533,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E95">
+        <v>1010</v>
+      </c>
       <c r="F95">
         <v>-0.35027353750000001</v>
       </c>
@@ -3541,13 +3550,10 @@
         <f t="shared" si="7"/>
         <v>Stranger</v>
       </c>
-      <c r="J95">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>-2.2085650849999999E-2</v>
+        <v>-4.7086867810000002E-2</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
@@ -3560,6 +3566,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E96">
+        <v>1011</v>
+      </c>
       <c r="F96">
         <v>-8.7978947020000003E-2</v>
       </c>
@@ -3574,13 +3583,10 @@
         <f t="shared" si="7"/>
         <v>Stranger</v>
       </c>
-      <c r="J96">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>-0.1410671517</v>
+        <v>-9.7378532109999999E-2</v>
       </c>
       <c r="B97" t="s">
         <v>2</v>
@@ -3593,6 +3599,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E97">
+        <v>1012</v>
+      </c>
       <c r="F97">
         <v>-0.1459837279</v>
       </c>
@@ -3607,13 +3616,10 @@
         <f t="shared" si="7"/>
         <v>Stranger</v>
       </c>
-      <c r="J97">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>-0.14094030339999999</v>
+        <v>-5.446789439E-3</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
@@ -3626,6 +3632,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E98">
+        <v>1013</v>
+      </c>
       <c r="F98">
         <v>-2.6854204659999999E-2</v>
       </c>
@@ -3640,13 +3649,10 @@
         <f t="shared" ref="I98:I129" si="12">IF(COUNTIF(G98,"*C*"), "Computer",IF(COUNTIF(G98,"*S*"), "Stranger", "Friend"))</f>
         <v>Stranger</v>
       </c>
-      <c r="J98">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>-8.0838063140000003E-3</v>
+        <v>1.1813729259999999E-2</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
@@ -3659,6 +3665,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E99">
+        <v>1015</v>
+      </c>
       <c r="F99">
         <v>-3.4919727310000002E-2</v>
       </c>
@@ -3673,13 +3682,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J99">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>0.20048084269999999</v>
+        <v>-0.1039783697</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -3692,6 +3698,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E100">
+        <v>1016</v>
+      </c>
       <c r="F100">
         <v>-3.778102538E-2</v>
       </c>
@@ -3706,13 +3715,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J100">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>-4.0671416879999998E-2</v>
+        <v>-0.17776800579999999</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
@@ -3725,6 +3731,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E101">
+        <v>1019</v>
+      </c>
       <c r="F101">
         <v>6.385305359E-2</v>
       </c>
@@ -3739,13 +3748,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J101">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>9.855324151E-2</v>
+        <v>4.342086673E-2</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
@@ -3758,6 +3764,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E102">
+        <v>1021</v>
+      </c>
       <c r="F102">
         <v>-0.1010412542</v>
       </c>
@@ -3772,13 +3781,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J102">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>0.1021181377</v>
+        <v>8.4713574730000005E-2</v>
       </c>
       <c r="B103" t="s">
         <v>2</v>
@@ -3791,6 +3797,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E103">
+        <v>1242</v>
+      </c>
       <c r="F103">
         <v>5.541653035E-2</v>
       </c>
@@ -3805,13 +3814,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J103">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>2.6764108129999999E-2</v>
+        <v>7.6041401719999999E-2</v>
       </c>
       <c r="B104" t="s">
         <v>2</v>
@@ -3824,6 +3830,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E104">
+        <v>1243</v>
+      </c>
       <c r="F104">
         <v>-4.8331653420000002E-2</v>
       </c>
@@ -3838,13 +3847,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J104">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>-6.7630678259999993E-2</v>
+        <v>-5.6825461289999997E-2</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
@@ -3857,6 +3863,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E105">
+        <v>1244</v>
+      </c>
       <c r="F105">
         <v>3.0473337610000002E-2</v>
       </c>
@@ -3871,13 +3880,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J105">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>1.960965131E-2</v>
+        <v>0.1019731555</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
@@ -3890,6 +3896,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E106">
+        <v>1248</v>
+      </c>
       <c r="F106">
         <v>9.0109356560000003E-3</v>
       </c>
@@ -3904,13 +3913,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J106">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>-0.25524678649999999</v>
+        <v>-0.2091138847</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
@@ -3923,6 +3929,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E107">
+        <v>1249</v>
+      </c>
       <c r="F107">
         <v>-0.25490740239999998</v>
       </c>
@@ -3937,13 +3946,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J107">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>-1.083248698E-2</v>
+        <v>-8.4154593240000006E-2</v>
       </c>
       <c r="B108" t="s">
         <v>2</v>
@@ -3956,6 +3962,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E108">
+        <v>1251</v>
+      </c>
       <c r="F108">
         <v>3.6123388319999998E-2</v>
       </c>
@@ -3970,13 +3979,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J108">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>2.52153499E-2</v>
+        <v>0.20311419889999999</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -3989,6 +3995,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E109">
+        <v>1255</v>
+      </c>
       <c r="F109">
         <v>-2.6178822059999999E-2</v>
       </c>
@@ -4003,13 +4012,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J109">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>-7.617663459E-2</v>
+        <v>-9.7279658709999994E-2</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
@@ -4022,6 +4028,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E110">
+        <v>1276</v>
+      </c>
       <c r="F110">
         <v>-5.3619691720000001E-2</v>
       </c>
@@ -4036,13 +4045,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J110">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>-0.21856942400000001</v>
+        <v>-0.29938834619999999</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
@@ -4055,6 +4061,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E111">
+        <v>1282</v>
+      </c>
       <c r="F111">
         <v>-0.1117862235</v>
       </c>
@@ -4069,13 +4078,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J111">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>-0.19951314310000001</v>
+        <v>-5.0887420089999998E-3</v>
       </c>
       <c r="B112" t="s">
         <v>2</v>
@@ -4088,6 +4094,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E112">
+        <v>1286</v>
+      </c>
       <c r="F112">
         <v>-4.4755032680000001E-2</v>
       </c>
@@ -4102,13 +4111,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J112">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>4.3481238980000003E-2</v>
+        <v>3.3048187559999997E-2</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
@@ -4121,6 +4127,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E113">
+        <v>1294</v>
+      </c>
       <c r="F113">
         <v>-5.133796191E-2</v>
       </c>
@@ -4135,13 +4144,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J113">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>0.1145842376</v>
+        <v>-0.187506376</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
@@ -4154,6 +4160,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E114">
+        <v>1301</v>
+      </c>
       <c r="F114">
         <v>8.8574336789999999E-2</v>
       </c>
@@ -4168,13 +4177,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J114">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>0.1930763492</v>
+        <v>6.2502214370000003E-2</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
@@ -4187,6 +4193,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E115">
+        <v>1302</v>
+      </c>
       <c r="F115">
         <v>-0.10629895</v>
       </c>
@@ -4201,13 +4210,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J115">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>5.7084807160000001E-2</v>
+        <v>-9.2562344059999996E-2</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
@@ -4220,6 +4226,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E116">
+        <v>1303</v>
+      </c>
       <c r="F116">
         <v>4.267559278E-2</v>
       </c>
@@ -4234,13 +4243,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J116">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>-8.5043882759999995E-2</v>
+        <v>-4.0915509330000002E-2</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
@@ -4253,6 +4259,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E117">
+        <v>3116</v>
+      </c>
       <c r="F117">
         <v>3.0511914309999999E-2</v>
       </c>
@@ -4267,13 +4276,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J117">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>0.16399768710000001</v>
+        <v>0.13240393510000001</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -4286,6 +4292,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E118">
+        <v>3122</v>
+      </c>
       <c r="F118">
         <v>8.5054937139999995E-2</v>
       </c>
@@ -4300,13 +4309,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J118">
-        <v>3122</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>-7.8638386089999998E-2</v>
+        <v>-6.1420340890000001E-2</v>
       </c>
       <c r="B119" t="s">
         <v>2</v>
@@ -4319,6 +4325,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E119">
+        <v>3125</v>
+      </c>
       <c r="F119">
         <v>-2.9922762830000001E-2</v>
       </c>
@@ -4333,13 +4342,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J119">
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>2.4875210830000001E-2</v>
+        <v>6.9439334399999997E-2</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
@@ -4352,6 +4358,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E120">
+        <v>3140</v>
+      </c>
       <c r="F120">
         <v>2.859398719E-2</v>
       </c>
@@ -4366,13 +4375,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J120">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>-0.17303835009999999</v>
+        <v>-0.28061178190000002</v>
       </c>
       <c r="B121" t="s">
         <v>2</v>
@@ -4385,6 +4391,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E121">
+        <v>3143</v>
+      </c>
       <c r="F121">
         <v>9.1561888110000003E-2</v>
       </c>
@@ -4399,13 +4408,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J121">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>0.14843806649999999</v>
+        <v>-1.2355143379999999E-2</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
@@ -4418,6 +4424,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E122">
+        <v>3152</v>
+      </c>
       <c r="F122">
         <v>9.0813794279999999E-2</v>
       </c>
@@ -4432,13 +4441,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J122">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>-4.5523530809999997E-2</v>
+        <v>-0.1536987427</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
@@ -4451,6 +4457,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E123">
+        <v>3166</v>
+      </c>
       <c r="F123">
         <v>6.1843472619999999E-2</v>
       </c>
@@ -4465,13 +4474,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J123">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>-5.0014549419999998E-2</v>
+        <v>-0.15318080989999999</v>
       </c>
       <c r="B124" t="s">
         <v>2</v>
@@ -4484,6 +4490,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E124">
+        <v>3167</v>
+      </c>
       <c r="F124">
         <v>4.9778255610000002E-2</v>
       </c>
@@ -4498,13 +4507,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J124">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>4.7534626339999997E-2</v>
+        <v>-0.16081012519999999</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
@@ -4517,6 +4523,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E125">
+        <v>3170</v>
+      </c>
       <c r="F125">
         <v>-9.8736389320000006E-2</v>
       </c>
@@ -4531,13 +4540,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J125">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>1.090539672E-2</v>
+        <v>8.0265310559999997E-3</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -4550,6 +4556,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E126">
+        <v>3173</v>
+      </c>
       <c r="F126">
         <v>-4.6910658809999999E-2</v>
       </c>
@@ -4564,13 +4573,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J126">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>6.2967289039999999E-2</v>
+        <v>8.2413913699999994E-2</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
@@ -4583,6 +4589,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E127">
+        <v>3176</v>
+      </c>
       <c r="F127">
         <v>-1.2983321779999999E-2</v>
       </c>
@@ -4597,13 +4606,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J127">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>-7.2304499940000003E-3</v>
+        <v>-0.18083380090000001</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
@@ -4616,6 +4622,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E128">
+        <v>3189</v>
+      </c>
       <c r="F128">
         <v>1.22089694E-2</v>
       </c>
@@ -4630,13 +4639,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J128">
-        <v>3189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>4.8154641880000001E-2</v>
+        <v>-7.8034911600000006E-2</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
@@ -4649,6 +4655,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E129">
+        <v>3190</v>
+      </c>
       <c r="F129">
         <v>0.1050106774</v>
       </c>
@@ -4663,13 +4672,10 @@
         <f t="shared" si="12"/>
         <v>Stranger</v>
       </c>
-      <c r="J129">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>-6.8150701389999999E-2</v>
+        <v>-0.1085618956</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
@@ -4682,6 +4688,9 @@
         <f t="shared" si="9"/>
         <v>Friend</v>
       </c>
+      <c r="E130">
+        <v>3199</v>
+      </c>
       <c r="F130">
         <v>5.5398907859999999E-2</v>
       </c>
@@ -4696,13 +4705,10 @@
         <f t="shared" ref="I130:I136" si="13">IF(COUNTIF(G130,"*C*"), "Computer",IF(COUNTIF(G130,"*S*"), "Stranger", "Friend"))</f>
         <v>Stranger</v>
       </c>
-      <c r="J130">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>-0.25496375059999998</v>
+        <v>-9.4578836420000006E-2</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
@@ -4715,6 +4721,9 @@
         <f t="shared" ref="D131:D194" si="15">IF(COUNTIF(B131,"*C*"), "Computer",IF(COUNTIF(B131,"*S*"), "Stranger", "Friend"))</f>
         <v>Friend</v>
       </c>
+      <c r="E131">
+        <v>3200</v>
+      </c>
       <c r="F131">
         <v>-0.1134136098</v>
       </c>
@@ -4729,13 +4738,10 @@
         <f t="shared" si="13"/>
         <v>Stranger</v>
       </c>
-      <c r="J131">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>-9.7706197269999996E-3</v>
+        <v>-8.2937230589999994E-2</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
@@ -4748,6 +4754,9 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
+      <c r="E132">
+        <v>3206</v>
+      </c>
       <c r="F132">
         <v>1.784736801E-2</v>
       </c>
@@ -4762,13 +4771,10 @@
         <f t="shared" si="13"/>
         <v>Stranger</v>
       </c>
-      <c r="J132">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>9.1283558229999992E-3</v>
+        <v>-4.2330409319999998E-2</v>
       </c>
       <c r="B133" t="s">
         <v>2</v>
@@ -4781,6 +4787,9 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
+      <c r="E133">
+        <v>3210</v>
+      </c>
       <c r="F133">
         <v>4.9122100699999997E-2</v>
       </c>
@@ -4795,13 +4804,10 @@
         <f t="shared" si="13"/>
         <v>Stranger</v>
       </c>
-      <c r="J133">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>4.2743234489999997E-2</v>
+        <v>0.22342149250000001</v>
       </c>
       <c r="B134" t="s">
         <v>2</v>
@@ -4814,6 +4820,9 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
+      <c r="E134">
+        <v>3212</v>
+      </c>
       <c r="F134">
         <v>5.3432775609999997E-2</v>
       </c>
@@ -4828,13 +4837,10 @@
         <f t="shared" si="13"/>
         <v>Stranger</v>
       </c>
-      <c r="J134">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>-3.3861639499999999E-3</v>
+        <v>0.16892708949999999</v>
       </c>
       <c r="B135" t="s">
         <v>2</v>
@@ -4847,6 +4853,9 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
+      <c r="E135">
+        <v>3218</v>
+      </c>
       <c r="F135">
         <v>-0.2232081363</v>
       </c>
@@ -4861,13 +4870,10 @@
         <f t="shared" si="13"/>
         <v>Stranger</v>
       </c>
-      <c r="J135">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>-7.4424068299999993E-2</v>
+        <v>-9.8417997330000007E-2</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
@@ -4880,6 +4886,9 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
+      <c r="E136">
+        <v>3220</v>
+      </c>
       <c r="F136">
         <v>-0.17594006779999999</v>
       </c>
@@ -4894,13 +4903,10 @@
         <f t="shared" si="13"/>
         <v>Stranger</v>
       </c>
-      <c r="J136">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>-0.15632092619999999</v>
+        <v>-0.21251997089999999</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -4913,13 +4919,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J137">
+      <c r="E137">
         <v>1001</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>-6.7695534020000003E-2</v>
+        <v>0.1305122896</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -4932,13 +4938,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J138">
+      <c r="E138">
         <v>1006</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>0.18544633520000001</v>
+        <v>-3.1350453409999999E-3</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -4951,13 +4957,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J139">
+      <c r="E139">
         <v>1009</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>-2.506671332E-2</v>
+        <v>0.118194523</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -4970,13 +4976,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J140">
+      <c r="E140">
         <v>1010</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>0.15189940690000001</v>
+        <v>0.1263038427</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -4989,13 +4995,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J141">
+      <c r="E141">
         <v>1011</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>-9.2512706E-2</v>
+        <v>9.2220445469999995E-2</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -5008,13 +5014,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J142">
+      <c r="E142">
         <v>1012</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>8.2986437940000005E-2</v>
+        <v>0.14092375639999999</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -5027,13 +5033,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J143">
+      <c r="E143">
         <v>1013</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>-6.746904326E-2</v>
+        <v>5.0099870710000001E-2</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -5046,13 +5052,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J144">
+      <c r="E144">
         <v>1015</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>2.5336503810000001E-2</v>
+        <v>0.1293291754</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -5065,13 +5071,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J145">
+      <c r="E145">
         <v>1016</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>4.8865048530000003E-2</v>
+        <v>3.9192299829999999E-2</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -5084,13 +5090,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J146">
+      <c r="E146">
         <v>1019</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>-2.5273870970000001E-2</v>
+        <v>-3.3542913899999999E-2</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -5103,13 +5109,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J147">
+      <c r="E147">
         <v>1021</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>-3.9852927599999997E-2</v>
+        <v>-9.9162565839999994E-3</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
@@ -5122,13 +5128,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J148">
+      <c r="E148">
         <v>1242</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>-4.7834818580000001E-2</v>
+        <v>0.1295742091</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
@@ -5141,13 +5147,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J149">
+      <c r="E149">
         <v>1243</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>9.5109140059999996E-3</v>
+        <v>1.962759863E-2</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
@@ -5160,13 +5166,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J150">
+      <c r="E150">
         <v>1244</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>2.3121254439999999E-2</v>
+        <v>0.17050960109999999</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -5179,13 +5185,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J151">
+      <c r="E151">
         <v>1248</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>-0.14576428289999999</v>
+        <v>-1.9525113069999999E-2</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -5198,13 +5204,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J152">
+      <c r="E152">
         <v>1249</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>-6.324410862E-3</v>
+        <v>-3.6500967789999998E-2</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
@@ -5217,13 +5223,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J153">
+      <c r="E153">
         <v>1251</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>4.4805139299999998E-2</v>
+        <v>0.1655562871</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
@@ -5236,13 +5242,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J154">
+      <c r="E154">
         <v>1255</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>-4.2092089979999997E-2</v>
+        <v>-4.6115072569999999E-2</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -5255,13 +5261,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J155">
+      <c r="E155">
         <v>1276</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>0.18500615710000001</v>
+        <v>2.37926782E-2</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -5274,13 +5280,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J156">
+      <c r="E156">
         <v>1282</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>4.1706046830000003E-2</v>
+        <v>2.6024563399999999E-2</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
@@ -5293,13 +5299,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J157">
+      <c r="E157">
         <v>1286</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>7.0389925189999994E-2</v>
+        <v>0.15009103830000001</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -5312,13 +5318,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J158">
+      <c r="E158">
         <v>1294</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>4.3756435980000001E-2</v>
+        <v>-0.13375654640000001</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -5331,13 +5337,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J159">
+      <c r="E159">
         <v>1301</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>0.16828469930000001</v>
+        <v>0.2262085627</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
@@ -5350,13 +5356,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J160">
+      <c r="E160">
         <v>1302</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>-7.3455408779999995E-2</v>
+        <v>-0.26126713089999998</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -5369,13 +5375,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J161">
+      <c r="E161">
         <v>1303</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>-0.12796338339999999</v>
+        <v>-2.776063397E-2</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
@@ -5388,13 +5394,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J162">
+      <c r="E162">
         <v>3116</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>0.22414382490000001</v>
+        <v>0.26598661470000001</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
@@ -5407,13 +5413,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J163">
+      <c r="E163">
         <v>3122</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>4.7561250239999998E-3</v>
+        <v>3.5693679669999999E-2</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
@@ -5426,13 +5432,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J164">
+      <c r="E164">
         <v>3125</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>3.4257799899999997E-2</v>
+        <v>3.6116669130000001E-2</v>
       </c>
       <c r="B165" t="s">
         <v>3</v>
@@ -5445,13 +5451,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J165">
+      <c r="E165">
         <v>3140</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>0.22864312980000001</v>
+        <v>0.30625343109999997</v>
       </c>
       <c r="B166" t="s">
         <v>3</v>
@@ -5464,13 +5470,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J166">
+      <c r="E166">
         <v>3143</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>6.3666969429999998E-2</v>
+        <v>-5.420908076E-2</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
@@ -5483,13 +5489,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J167">
+      <c r="E167">
         <v>3152</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>0.1168522511</v>
+        <v>3.5480740599999998E-2</v>
       </c>
       <c r="B168" t="s">
         <v>3</v>
@@ -5502,13 +5508,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J168">
+      <c r="E168">
         <v>3166</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>-9.1183370180000001E-2</v>
+        <v>0.13408175110000001</v>
       </c>
       <c r="B169" t="s">
         <v>3</v>
@@ -5521,13 +5527,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J169">
+      <c r="E169">
         <v>3167</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>-7.4615364010000004E-2</v>
+        <v>7.0151250809999996E-2</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
@@ -5540,13 +5546,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J170">
+      <c r="E170">
         <v>3170</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>2.9234620419999999E-2</v>
+        <v>-2.2136482820000001E-2</v>
       </c>
       <c r="B171" t="s">
         <v>3</v>
@@ -5559,13 +5565,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J171">
+      <c r="E171">
         <v>3173</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>4.4546370840000002E-2</v>
+        <v>0.1359209566</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
@@ -5578,13 +5584,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J172">
+      <c r="E172">
         <v>3176</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>-4.6470051560000003E-2</v>
+        <v>0.24583891720000001</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
@@ -5597,13 +5603,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J173">
+      <c r="E173">
         <v>3189</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>0.1333091364</v>
+        <v>4.9585020649999999E-2</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
@@ -5616,13 +5622,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J174">
+      <c r="E174">
         <v>3190</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>0.1374480112</v>
+        <v>0.1106407638</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
@@ -5635,13 +5641,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J175">
+      <c r="E175">
         <v>3199</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>-0.20236506879999999</v>
+        <v>-0.17913426099999999</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
@@ -5654,13 +5660,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J176">
+      <c r="E176">
         <v>3200</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>3.4939827729999998E-2</v>
+        <v>-6.9069279289999994E-2</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
@@ -5673,13 +5679,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J177">
+      <c r="E177">
         <v>3206</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>-3.3795779989999997E-2</v>
+        <v>7.2498982710000007E-2</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
@@ -5692,13 +5698,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J178">
+      <c r="E178">
         <v>3210</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>8.8079275080000005E-2</v>
+        <v>9.8789523140000002E-2</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
@@ -5711,13 +5717,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J179">
+      <c r="E179">
         <v>3212</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>-2.965120458E-2</v>
+        <v>3.6525989289999998E-2</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
@@ -5730,13 +5736,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J180">
+      <c r="E180">
         <v>3218</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>-0.17557328119999999</v>
+        <v>-5.083771326E-2</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
@@ -5749,13 +5755,13 @@
         <f t="shared" si="15"/>
         <v>Friend</v>
       </c>
-      <c r="J181">
+      <c r="E181">
         <v>3220</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>-5.759133994E-2</v>
+        <v>-1.278958161E-2</v>
       </c>
       <c r="B182" t="s">
         <v>4</v>
@@ -5768,13 +5774,13 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J182">
+      <c r="E182">
         <v>1001</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>-1.5801855579999999E-2</v>
+        <v>1.444996326E-2</v>
       </c>
       <c r="B183" t="s">
         <v>4</v>
@@ -5787,13 +5793,13 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J183">
+      <c r="E183">
         <v>1006</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>9.7494406340000006E-2</v>
+        <v>-0.15496564030000001</v>
       </c>
       <c r="B184" t="s">
         <v>4</v>
@@ -5806,13 +5812,13 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J184">
+      <c r="E184">
         <v>1009</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>-0.15514709600000001</v>
+        <v>-0.10070867159999999</v>
       </c>
       <c r="B185" t="s">
         <v>4</v>
@@ -5825,13 +5831,13 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J185">
+      <c r="E185">
         <v>1010</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>-0.11382139989999999</v>
+        <v>-0.15366236529999999</v>
       </c>
       <c r="B186" t="s">
         <v>4</v>
@@ -5844,13 +5850,13 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J186">
+      <c r="E186">
         <v>1011</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>-3.764179527E-2</v>
+        <v>1.6927679399999999E-2</v>
       </c>
       <c r="B187" t="s">
         <v>4</v>
@@ -5863,13 +5869,13 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J187">
+      <c r="E187">
         <v>1012</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>4.5907939490000001E-2</v>
+        <v>-8.2264920739999997E-2</v>
       </c>
       <c r="B188" t="s">
         <v>4</v>
@@ -5882,13 +5888,13 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J188">
+      <c r="E188">
         <v>1013</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>-8.7367007560000001E-2</v>
+        <v>-2.699046817E-2</v>
       </c>
       <c r="B189" t="s">
         <v>4</v>
@@ -5901,13 +5907,13 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J189">
+      <c r="E189">
         <v>1015</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>-4.4584595810000002E-2</v>
+        <v>8.997733929E-2</v>
       </c>
       <c r="B190" t="s">
         <v>4</v>
@@ -5920,13 +5926,13 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J190">
+      <c r="E190">
         <v>1016</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>0.2040825346</v>
+        <v>0.1184052801</v>
       </c>
       <c r="B191" t="s">
         <v>4</v>
@@ -5939,13 +5945,13 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J191">
+      <c r="E191">
         <v>1019</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>8.2497487260000002E-2</v>
+        <v>1.70134864E-2</v>
       </c>
       <c r="B192" t="s">
         <v>4</v>
@@ -5958,13 +5964,13 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J192">
+      <c r="E192">
         <v>1021</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>-8.543360555E-2</v>
+        <v>-1.9175610659999998E-2</v>
       </c>
       <c r="B193" t="s">
         <v>4</v>
@@ -5977,13 +5983,13 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J193">
+      <c r="E193">
         <v>1242</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>-6.4515799550000003E-2</v>
+        <v>-2.5727279079999998E-2</v>
       </c>
       <c r="B194" t="s">
         <v>4</v>
@@ -5996,13 +6002,13 @@
         <f t="shared" si="15"/>
         <v>Stranger</v>
       </c>
-      <c r="J194">
+      <c r="E194">
         <v>1243</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>-6.9098769000000004E-2</v>
+        <v>8.2400670949999994E-3</v>
       </c>
       <c r="B195" t="s">
         <v>4</v>
@@ -6015,13 +6021,13 @@
         <f t="shared" ref="D195:D258" si="17">IF(COUNTIF(B195,"*C*"), "Computer",IF(COUNTIF(B195,"*S*"), "Stranger", "Friend"))</f>
         <v>Stranger</v>
       </c>
-      <c r="J195">
+      <c r="E195">
         <v>1244</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>-5.7309784200000003E-3</v>
+        <v>-6.7465789009999999E-2</v>
       </c>
       <c r="B196" t="s">
         <v>4</v>
@@ -6034,13 +6040,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J196">
+      <c r="E196">
         <v>1248</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>-6.9017661849999995E-2</v>
+        <v>-7.7439109320000005E-2</v>
       </c>
       <c r="B197" t="s">
         <v>4</v>
@@ -6053,13 +6059,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J197">
+      <c r="E197">
         <v>1249</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>-8.0627864049999998E-2</v>
+        <v>-0.1508120792</v>
       </c>
       <c r="B198" t="s">
         <v>4</v>
@@ -6072,13 +6078,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J198">
+      <c r="E198">
         <v>1251</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>-1.299118061E-2</v>
+        <v>0.17691111330000001</v>
       </c>
       <c r="B199" t="s">
         <v>4</v>
@@ -6091,13 +6097,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J199">
+      <c r="E199">
         <v>1255</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>-2.42493721E-2</v>
+        <v>-4.1408873669999999E-2</v>
       </c>
       <c r="B200" t="s">
         <v>4</v>
@@ -6110,13 +6116,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J200">
+      <c r="E200">
         <v>1276</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>-0.12907082619999999</v>
+        <v>-0.21645364240000001</v>
       </c>
       <c r="B201" t="s">
         <v>4</v>
@@ -6129,13 +6135,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J201">
+      <c r="E201">
         <v>1282</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>-9.0179865619999994E-2</v>
+        <v>9.1863807280000001E-2</v>
       </c>
       <c r="B202" t="s">
         <v>4</v>
@@ -6148,13 +6154,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J202">
+      <c r="E202">
         <v>1286</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>-9.3791458489999993E-2</v>
+        <v>-0.1003100051</v>
       </c>
       <c r="B203" t="s">
         <v>4</v>
@@ -6167,13 +6173,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J203">
+      <c r="E203">
         <v>1294</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>7.1974425580000001E-2</v>
+        <v>2.950535248E-2</v>
       </c>
       <c r="B204" t="s">
         <v>4</v>
@@ -6186,13 +6192,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J204">
+      <c r="E204">
         <v>1301</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>-5.454636581E-4</v>
+        <v>-8.2900042500000007E-2</v>
       </c>
       <c r="B205" t="s">
         <v>4</v>
@@ -6205,13 +6211,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J205">
+      <c r="E205">
         <v>1302</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>0.15210731929999999</v>
+        <v>-9.3329564729999995E-2</v>
       </c>
       <c r="B206" t="s">
         <v>4</v>
@@ -6224,13 +6230,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J206">
+      <c r="E206">
         <v>1303</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>2.527745365E-2</v>
+        <v>9.6628448650000004E-2</v>
       </c>
       <c r="B207" t="s">
         <v>4</v>
@@ -6243,13 +6249,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J207">
+      <c r="E207">
         <v>3116</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>-0.11683770139999999</v>
+        <v>-0.22131308290000001</v>
       </c>
       <c r="B208" t="s">
         <v>4</v>
@@ -6262,13 +6268,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J208">
+      <c r="E208">
         <v>3122</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>-5.9800351539999998E-2</v>
+        <v>-2.6324961920000001E-2</v>
       </c>
       <c r="B209" t="s">
         <v>4</v>
@@ -6281,13 +6287,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J209">
+      <c r="E209">
         <v>3125</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>-3.1271478999999998E-2</v>
+        <v>-5.767862897E-2</v>
       </c>
       <c r="B210" t="s">
         <v>4</v>
@@ -6300,13 +6306,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J210">
+      <c r="E210">
         <v>3140</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>0.17569795320000001</v>
+        <v>3.0397796769999999E-2</v>
       </c>
       <c r="B211" t="s">
         <v>4</v>
@@ -6319,13 +6325,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J211">
+      <c r="E211">
         <v>3143</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>7.0542843549999998E-2</v>
+        <v>-2.5577478769999999E-2</v>
       </c>
       <c r="B212" t="s">
         <v>4</v>
@@ -6338,13 +6344,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J212">
+      <c r="E212">
         <v>3152</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>5.192112007E-2</v>
+        <v>-9.8923108730000001E-2</v>
       </c>
       <c r="B213" t="s">
         <v>4</v>
@@ -6357,13 +6363,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J213">
+      <c r="E213">
         <v>3166</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>0.1577175512</v>
+        <v>0.17147724219999999</v>
       </c>
       <c r="B214" t="s">
         <v>4</v>
@@ -6376,13 +6382,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J214">
+      <c r="E214">
         <v>3167</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>8.1117675080000007E-2</v>
+        <v>-0.12338275210000001</v>
       </c>
       <c r="B215" t="s">
         <v>4</v>
@@ -6395,13 +6401,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J215">
+      <c r="E215">
         <v>3170</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>-1.9003938250000001E-2</v>
+        <v>-1.293166898E-2</v>
       </c>
       <c r="B216" t="s">
         <v>4</v>
@@ -6414,13 +6420,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J216">
+      <c r="E216">
         <v>3173</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>1.820264756E-2</v>
+        <v>5.253472579E-2</v>
       </c>
       <c r="B217" t="s">
         <v>4</v>
@@ -6433,13 +6439,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J217">
+      <c r="E217">
         <v>3176</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>0.14134363920000001</v>
+        <v>-5.0352454979999996E-3</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
@@ -6452,13 +6458,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J218">
+      <c r="E218">
         <v>3189</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>-7.3970837540000001E-2</v>
+        <v>-0.1070787505</v>
       </c>
       <c r="B219" t="s">
         <v>4</v>
@@ -6471,13 +6477,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J219">
+      <c r="E219">
         <v>3190</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>5.5112142980000001E-2</v>
+        <v>7.582150654E-2</v>
       </c>
       <c r="B220" t="s">
         <v>4</v>
@@ -6490,13 +6496,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J220">
+      <c r="E220">
         <v>3199</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>-0.22375119700000001</v>
+        <v>5.0399484219999999E-2</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
@@ -6509,13 +6515,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J221">
+      <c r="E221">
         <v>3200</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>-2.8684517220000001E-2</v>
+        <v>-0.1421886426</v>
       </c>
       <c r="B222" t="s">
         <v>4</v>
@@ -6528,13 +6534,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J222">
+      <c r="E222">
         <v>3206</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>1.3138230589999999E-2</v>
+        <v>-3.2095351389999999E-2</v>
       </c>
       <c r="B223" t="s">
         <v>4</v>
@@ -6547,13 +6553,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J223">
+      <c r="E223">
         <v>3210</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>2.6675204059999999E-2</v>
+        <v>0.1540899859</v>
       </c>
       <c r="B224" t="s">
         <v>4</v>
@@ -6566,13 +6572,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J224">
+      <c r="E224">
         <v>3212</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>6.7311633980000002E-3</v>
+        <v>0.1088379823</v>
       </c>
       <c r="B225" t="s">
         <v>4</v>
@@ -6585,13 +6591,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J225">
+      <c r="E225">
         <v>3218</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>-0.15685847050000001</v>
+        <v>-0.27556040370000001</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
@@ -6604,13 +6610,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J226">
+      <c r="E226">
         <v>3220</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>-1.964949689E-2</v>
+        <v>-0.2046352971</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -6623,13 +6629,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J227">
+      <c r="E227">
         <v>1001</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>-1.287515146E-3</v>
+        <v>9.4392961560000002E-2</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -6642,13 +6648,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J228">
+      <c r="E228">
         <v>1006</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>0.20777517979999999</v>
+        <v>8.3373730990000006E-2</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -6661,13 +6667,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J229">
+      <c r="E229">
         <v>1009</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>-0.35027353750000001</v>
+        <v>-0.3967194637</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -6680,13 +6686,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J230">
+      <c r="E230">
         <v>1010</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>-8.7978947020000003E-2</v>
+        <v>-0.13627404630000001</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -6699,13 +6705,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J231">
+      <c r="E231">
         <v>1011</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>-0.1459837279</v>
+        <v>-0.1062165311</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -6718,13 +6724,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J232">
+      <c r="E232">
         <v>1012</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>-2.6854204659999999E-2</v>
+        <v>-9.9892452699999995E-2</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -6737,13 +6743,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J233">
+      <c r="E233">
         <v>1013</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>-3.4919727310000002E-2</v>
+        <v>0.11621089630000001</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -6756,13 +6762,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J234">
+      <c r="E234">
         <v>1015</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>-3.778102538E-2</v>
+        <v>6.7981294550000002E-2</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -6775,13 +6781,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J235">
+      <c r="E235">
         <v>1016</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>6.385305359E-2</v>
+        <v>1.244906413E-2</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -6794,13 +6800,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J236">
+      <c r="E236">
         <v>1019</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>-0.1010412542</v>
+        <v>-0.1148136947</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -6813,13 +6819,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J237">
+      <c r="E237">
         <v>1021</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>5.541653035E-2</v>
+        <v>-3.9232940149999999E-2</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -6832,13 +6838,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J238">
+      <c r="E238">
         <v>1242</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>-4.8331653420000002E-2</v>
+        <v>5.9835544320000003E-3</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -6851,13 +6857,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J239">
+      <c r="E239">
         <v>1243</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>3.0473337610000002E-2</v>
+        <v>0.1471389015</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -6870,13 +6876,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J240">
+      <c r="E240">
         <v>1244</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>9.0109356560000003E-3</v>
+        <v>2.663849943E-2</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -6889,13 +6895,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J241">
+      <c r="E241">
         <v>1248</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>-0.25490740239999998</v>
+        <v>-0.30793826330000001</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -6908,13 +6914,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J242">
+      <c r="E242">
         <v>1249</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>3.6123388319999998E-2</v>
+        <v>-3.6544906520000003E-2</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -6927,13 +6933,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J243">
+      <c r="E243">
         <v>1251</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>-2.6178822059999999E-2</v>
+        <v>-3.316054798E-3</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -6946,13 +6952,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J244">
+      <c r="E244">
         <v>1255</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>-5.3619691720000001E-2</v>
+        <v>-4.7519615879999998E-2</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -6965,13 +6971,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J245">
+      <c r="E245">
         <v>1276</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>-0.1117862235</v>
+        <v>-0.18168204630000001</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -6984,13 +6990,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J246">
+      <c r="E246">
         <v>1282</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>-4.4755032680000001E-2</v>
+        <v>9.4095349630000005E-2</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -7003,13 +7009,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J247">
+      <c r="E247">
         <v>1286</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>-5.133796191E-2</v>
+        <v>0.24087163419999999</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -7022,13 +7028,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J248">
+      <c r="E248">
         <v>1294</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>8.8574336789999999E-2</v>
+        <v>8.4042743840000003E-2</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -7041,13 +7047,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J249">
+      <c r="E249">
         <v>1301</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>-0.10629895</v>
+        <v>6.5181928089999994E-2</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -7060,13 +7066,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J250">
+      <c r="E250">
         <v>1302</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>4.267559278E-2</v>
+        <v>-9.8056984740000006E-2</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -7079,13 +7085,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J251">
+      <c r="E251">
         <v>1303</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>3.0511914309999999E-2</v>
+        <v>7.9257236039999998E-2</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -7098,13 +7104,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J252">
+      <c r="E252">
         <v>3116</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>8.5054937139999995E-2</v>
+        <v>-2.4505911469999999E-2</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -7117,13 +7123,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J253">
+      <c r="E253">
         <v>3122</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>-2.9922762830000001E-2</v>
+        <v>5.871307881E-2</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -7136,13 +7142,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J254">
+      <c r="E254">
         <v>3125</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>2.859398719E-2</v>
+        <v>0.1208531242</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -7155,13 +7161,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J255">
+      <c r="E255">
         <v>3140</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>9.1561888110000003E-2</v>
+        <v>1.5014984509999999E-2</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -7174,13 +7180,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J256">
+      <c r="E256">
         <v>3143</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>9.0813794279999999E-2</v>
+        <v>-0.1280823384</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -7193,13 +7199,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J257">
+      <c r="E257">
         <v>3152</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>6.1843472619999999E-2</v>
+        <v>5.2314388609999998E-2</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -7212,13 +7218,13 @@
         <f t="shared" si="17"/>
         <v>Stranger</v>
       </c>
-      <c r="J258">
+      <c r="E258">
         <v>3166</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>4.9778255610000002E-2</v>
+        <v>4.2715662930000002E-2</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -7231,13 +7237,13 @@
         <f t="shared" ref="D259:D271" si="19">IF(COUNTIF(B259,"*C*"), "Computer",IF(COUNTIF(B259,"*S*"), "Stranger", "Friend"))</f>
         <v>Stranger</v>
       </c>
-      <c r="J259">
+      <c r="E259">
         <v>3167</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>-9.8736389320000006E-2</v>
+        <v>2.049966114E-2</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -7250,13 +7256,13 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J260">
+      <c r="E260">
         <v>3170</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>-4.6910658809999999E-2</v>
+        <v>-1.3680023960000001E-2</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -7269,13 +7275,13 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J261">
+      <c r="E261">
         <v>3173</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>-1.2983321779999999E-2</v>
+        <v>5.3508381200000003E-2</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -7288,13 +7294,13 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J262">
+      <c r="E262">
         <v>3176</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>1.22089694E-2</v>
+        <v>4.9874582789999997E-2</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -7307,13 +7313,13 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J263">
+      <c r="E263">
         <v>3189</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>0.1050106774</v>
+        <v>2.4270384759999999E-2</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -7326,13 +7332,13 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J264">
+      <c r="E264">
         <v>3190</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>5.5398907859999999E-2</v>
+        <v>6.6600479589999997E-2</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -7345,13 +7351,13 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J265">
+      <c r="E265">
         <v>3199</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>-0.1134136098</v>
+        <v>-8.870659752E-2</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -7364,13 +7370,13 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J266">
+      <c r="E266">
         <v>3200</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>1.784736801E-2</v>
+        <v>-8.3419344379999996E-2</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -7383,13 +7389,13 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J267">
+      <c r="E267">
         <v>3206</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>4.9122100699999997E-2</v>
+        <v>0.1860939231</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -7402,13 +7408,13 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J268">
+      <c r="E268">
         <v>3210</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>5.3432775609999997E-2</v>
+        <v>0.2154441876</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -7421,13 +7427,13 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J269">
+      <c r="E269">
         <v>3212</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>-0.2232081363</v>
+        <v>-7.0834531739999998E-2</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -7440,13 +7446,13 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J270">
+      <c r="E270">
         <v>3218</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271">
-        <v>-0.17594006779999999</v>
+        <v>-0.1826851353</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -7459,7 +7465,7 @@
         <f t="shared" si="19"/>
         <v>Stranger</v>
       </c>
-      <c r="J271">
+      <c r="E271">
         <v>3220</v>
       </c>
     </row>
